--- a/Countries by region and centroid.xlsx
+++ b/Countries by region and centroid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjwal_000\Downloads\Programming\My Projects\Flight Sim Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13EB050-AB51-452A-AEC5-AF4EF6E8725F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39328E42-B021-4BD4-8399-A6EFE8BF85F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="510" windowWidth="15135" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="3780" windowWidth="15135" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="523">
   <si>
     <t>name</t>
   </si>
@@ -1588,6 +1588,18 @@
   </si>
   <si>
     <t>VietNam</t>
+  </si>
+  <si>
+    <t>Europe - Southern</t>
+  </si>
+  <si>
+    <t>Europe - Eastern</t>
+  </si>
+  <si>
+    <t>Africa - Eastern</t>
+  </si>
+  <si>
+    <t>Africa - Western</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5560,7 +5572,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="E181" s="1">
         <v>45.943161000000003</v>
@@ -5580,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="E182" s="1">
         <v>61.524009999999997</v>
@@ -5600,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="E183" s="1">
         <v>-1.9402779999999999</v>
@@ -5640,7 +5652,7 @@
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="E185" s="1">
         <v>-24.143474000000001</v>
@@ -6080,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="E207" s="1">
         <v>40.463667000000001</v>

--- a/Countries by region and centroid.xlsx
+++ b/Countries by region and centroid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjwal_000\Downloads\Programming\My Projects\Flight Sim Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39328E42-B021-4BD4-8399-A6EFE8BF85F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A75073-90EA-4A59-BCB9-027F86515B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="3780" windowWidth="15135" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19125" yWindow="3780" windowWidth="15135" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,6 @@
     <t>CR</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -1600,22 +1597,17 @@
   </si>
   <si>
     <t>Africa - Western</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1629,11 +1621,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1653,20 +1646,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1947,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,23 +1957,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1992,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2" s="1">
         <v>33.939109999999999</v>
@@ -2012,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E3" s="1">
         <v>41.153331999999999</v>
@@ -2032,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E4" s="1">
         <v>28.033885999999999</v>
@@ -2072,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E6" s="1">
         <v>42.546244999999999</v>
@@ -2092,7 +2087,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E7" s="1">
         <v>-11.202692000000001</v>
@@ -2132,7 +2127,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E9" s="1">
         <v>-75.250973000000002</v>
@@ -2172,7 +2167,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E11" s="1">
         <v>-38.416097000000001</v>
@@ -2192,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E12" s="1">
         <v>40.069099000000001</v>
@@ -2252,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E15" s="1">
         <v>47.516230999999998</v>
@@ -2272,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E16" s="1">
         <v>40.143104999999998</v>
@@ -2312,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E18" s="1">
         <v>25.930413999999999</v>
@@ -2332,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" s="1">
         <v>23.684994</v>
@@ -2372,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E21" s="1">
         <v>53.709806999999998</v>
@@ -2392,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E22" s="1">
         <v>50.503886999999999</v>
@@ -2412,7 +2407,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E23" s="1">
         <v>17.189876999999999</v>
@@ -2432,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E24" s="1">
         <v>9.3076899999999991</v>
@@ -2452,7 +2447,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E25" s="1">
         <v>32.321384000000002</v>
@@ -2472,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" s="1">
         <v>27.514161999999999</v>
@@ -2483,7 +2478,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>59</v>
@@ -2492,7 +2487,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E27" s="1">
         <v>-16.290154000000001</v>
@@ -2512,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E28" s="1">
         <v>43.915886</v>
@@ -2532,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E29" s="1">
         <v>-22.328474</v>
@@ -2552,7 +2547,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E30" s="1">
         <v>-14.235004</v>
@@ -2572,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E31" s="1">
         <v>-6.3431940000000004</v>
@@ -2583,10 +2578,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -2603,7 +2598,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>68</v>
@@ -2612,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E33" s="1">
         <v>4.5352769999999998</v>
@@ -2632,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E34" s="1">
         <v>42.733882999999999</v>
@@ -2652,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E35" s="1">
         <v>12.238333000000001</v>
@@ -2672,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E36" s="1">
         <v>-3.3730560000000001</v>
@@ -2692,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E37" s="1">
         <v>12.565678999999999</v>
@@ -2712,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E38" s="1">
         <v>7.3697220000000003</v>
@@ -2732,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E39" s="1">
         <v>56.130366000000002</v>
@@ -2752,7 +2747,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E40" s="1">
         <v>16.002082000000001</v>
@@ -2792,7 +2787,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E42" s="1">
         <v>6.6111110000000002</v>
@@ -2812,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E43" s="1">
         <v>15.454166000000001</v>
@@ -2832,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E44" s="1">
         <v>-35.675147000000003</v>
@@ -2852,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E45" s="1">
         <v>35.861660000000001</v>
@@ -2912,7 +2907,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E48" s="1">
         <v>4.5708679999999999</v>
@@ -2932,7 +2927,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E49" s="1">
         <v>-11.875000999999999</v>
@@ -2952,7 +2947,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E50" s="1">
         <v>-4.0383329999999997</v>
@@ -2972,7 +2967,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E51" s="1">
         <v>-0.228021</v>
@@ -3012,7 +3007,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E53" s="1">
         <v>9.7489170000000005</v>
@@ -3023,150 +3018,150 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E54" s="1">
-        <v>7.5399890000000003</v>
+        <v>45.1</v>
       </c>
       <c r="F54" s="1">
-        <v>-5.5470800000000002</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>496</v>
+        <v>22</v>
       </c>
       <c r="E55" s="1">
-        <v>45.1</v>
+        <v>21.521757000000001</v>
       </c>
       <c r="F55" s="1">
-        <v>15.2</v>
+        <v>-77.781166999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>22</v>
+        <v>515</v>
       </c>
       <c r="E56" s="1">
-        <v>21.521757000000001</v>
+        <v>35.126412999999999</v>
       </c>
       <c r="F56" s="1">
-        <v>-77.781166999999996</v>
+        <v>33.429859</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="E57" s="1">
-        <v>35.126412999999999</v>
+        <v>49.817492000000001</v>
       </c>
       <c r="F57" s="1">
-        <v>33.429859</v>
+        <v>15.472962000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E58" s="1">
-        <v>49.817492000000001</v>
+        <v>56.263919999999999</v>
       </c>
       <c r="F58" s="1">
-        <v>15.472962000000001</v>
+        <v>9.5017849999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>505</v>
       </c>
       <c r="E59" s="1">
-        <v>56.263919999999999</v>
+        <v>11.825138000000001</v>
       </c>
       <c r="F59" s="1">
-        <v>9.5017849999999999</v>
+        <v>42.590274999999998</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>506</v>
+        <v>22</v>
       </c>
       <c r="E60" s="1">
-        <v>11.825138000000001</v>
+        <v>15.414999</v>
       </c>
       <c r="F60" s="1">
-        <v>42.590274999999998</v>
+        <v>-61.370975999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>21</v>
@@ -3175,538 +3170,538 @@
         <v>22</v>
       </c>
       <c r="E61" s="1">
-        <v>15.414999</v>
+        <v>18.735693000000001</v>
       </c>
       <c r="F61" s="1">
-        <v>-61.370975999999999</v>
+        <v>-70.162650999999997</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>22</v>
+        <v>511</v>
       </c>
       <c r="E62" s="1">
-        <v>18.735693000000001</v>
+        <v>-1.8312390000000001</v>
       </c>
       <c r="F62" s="1">
-        <v>-70.162650999999997</v>
+        <v>-78.183406000000005</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="E63" s="1">
-        <v>-1.8312390000000001</v>
+        <v>26.820553</v>
       </c>
       <c r="F63" s="1">
-        <v>-78.183406000000005</v>
+        <v>30.802498</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E64" s="1">
-        <v>26.820553</v>
+        <v>13.794185000000001</v>
       </c>
       <c r="F64" s="1">
-        <v>30.802498</v>
+        <v>-88.896529999999998</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E65" s="1">
-        <v>13.794185000000001</v>
+        <v>1.650801</v>
       </c>
       <c r="F65" s="1">
-        <v>-88.896529999999998</v>
+        <v>10.267894999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E66" s="1">
-        <v>1.650801</v>
+        <v>15.179384000000001</v>
       </c>
       <c r="F66" s="1">
-        <v>10.267894999999999</v>
+        <v>39.782333999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E67" s="1">
-        <v>15.179384000000001</v>
+        <v>58.595272000000001</v>
       </c>
       <c r="F67" s="1">
-        <v>39.782333999999999</v>
+        <v>25.013607</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E68" s="1">
-        <v>58.595272000000001</v>
+        <v>9.1449999999999996</v>
       </c>
       <c r="F68" s="1">
-        <v>25.013607</v>
+        <v>40.489673000000003</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E69" s="1">
-        <v>9.1449999999999996</v>
+        <v>-51.796253</v>
       </c>
       <c r="F69" s="1">
-        <v>40.489673000000003</v>
+        <v>39.782333999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E70" s="1">
-        <v>-51.796253</v>
+        <v>61.892634999999999</v>
       </c>
       <c r="F70" s="1">
-        <v>39.782333999999999</v>
+        <v>-6.9118060000000003</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E71" s="1">
-        <v>61.892634999999999</v>
+        <v>-16.578192999999999</v>
       </c>
       <c r="F71" s="1">
-        <v>-6.9118060000000003</v>
+        <v>179.414413</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>505</v>
+        <v>14</v>
       </c>
       <c r="E72" s="1">
-        <v>-16.578192999999999</v>
+        <v>61.924109999999999</v>
       </c>
       <c r="F72" s="1">
-        <v>179.414413</v>
+        <v>25.748151</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="E73" s="1">
-        <v>61.924109999999999</v>
+        <v>46.227637999999999</v>
       </c>
       <c r="F73" s="1">
-        <v>25.748151</v>
+        <v>2.213749</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E74" s="1">
-        <v>46.227637999999999</v>
+        <v>3.9338890000000002</v>
       </c>
       <c r="F74" s="1">
-        <v>2.213749</v>
+        <v>-53.125782000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="E75" s="1">
-        <v>3.9338890000000002</v>
+        <v>-17.679742000000001</v>
       </c>
       <c r="F75" s="1">
-        <v>-53.125782000000001</v>
+        <v>-149.40684300000001</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>508</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>512</v>
+        <v>14</v>
       </c>
       <c r="E76" s="1">
-        <v>-17.679742000000001</v>
+        <v>-49.280366000000001</v>
       </c>
       <c r="F76" s="1">
-        <v>-149.40684300000001</v>
+        <v>69.348557</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>509</v>
+        <v>155</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>14</v>
+        <v>505</v>
       </c>
       <c r="E77" s="1">
-        <v>-49.280366000000001</v>
+        <v>-0.80368899999999999</v>
       </c>
       <c r="F77" s="1">
-        <v>69.348557</v>
+        <v>11.609444</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.80368899999999999</v>
+        <v>13.443182</v>
       </c>
       <c r="F78" s="1">
-        <v>11.609444</v>
+        <v>-15.310138999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E79" s="1">
-        <v>13.443182</v>
+        <v>31.354676000000001</v>
       </c>
       <c r="F79" s="1">
-        <v>-15.310138999999999</v>
+        <v>34.308824999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E80" s="1">
-        <v>31.354676000000001</v>
+        <v>42.315407</v>
       </c>
       <c r="F80" s="1">
-        <v>34.308824999999999</v>
+        <v>43.356892000000002</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="E81" s="1">
-        <v>42.315407</v>
+        <v>51.165691000000002</v>
       </c>
       <c r="F81" s="1">
-        <v>43.356892000000002</v>
+        <v>10.451525999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E82" s="1">
-        <v>51.165691000000002</v>
+        <v>7.9465269999999997</v>
       </c>
       <c r="F82" s="1">
-        <v>10.451525999999999</v>
+        <v>-1.0231939999999999</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E83" s="1">
-        <v>7.9465269999999997</v>
+        <v>36.137740999999998</v>
       </c>
       <c r="F83" s="1">
-        <v>-1.0231939999999999</v>
+        <v>-5.3453739999999996</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>488</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>449</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E84" s="1">
-        <v>36.137740999999998</v>
+        <v>55.378050999999999</v>
       </c>
       <c r="F84" s="1">
-        <v>-5.3453739999999996</v>
+        <v>-3.4359730000000002</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>489</v>
+        <v>169</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E85" s="1">
-        <v>55.378050999999999</v>
+        <v>39.074207999999999</v>
       </c>
       <c r="F85" s="1">
-        <v>-3.4359730000000002</v>
+        <v>21.824311999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E86" s="1">
-        <v>39.074207999999999</v>
+        <v>71.706935999999999</v>
       </c>
       <c r="F86" s="1">
-        <v>21.824311999999999</v>
+        <v>-42.604303000000002</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>511</v>
+        <v>22</v>
       </c>
       <c r="E87" s="1">
-        <v>71.706935999999999</v>
+        <v>12.262776000000001</v>
       </c>
       <c r="F87" s="1">
-        <v>-42.604303000000002</v>
+        <v>-61.604171000000001</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>21</v>
@@ -3715,295 +3710,295 @@
         <v>22</v>
       </c>
       <c r="E88" s="1">
-        <v>12.262776000000001</v>
+        <v>16.995971000000001</v>
       </c>
       <c r="F88" s="1">
-        <v>-61.604171000000001</v>
+        <v>-62.067641000000002</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E89" s="1">
-        <v>16.995971000000001</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="F89" s="1">
-        <v>-62.067641000000002</v>
+        <v>144.79373100000001</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>14</v>
+        <v>501</v>
       </c>
       <c r="E90" s="1">
-        <v>13.444304000000001</v>
+        <v>15.783471</v>
       </c>
       <c r="F90" s="1">
-        <v>144.79373100000001</v>
+        <v>-90.230759000000006</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E91" s="1">
-        <v>15.783471</v>
+        <v>49.465691</v>
       </c>
       <c r="F91" s="1">
-        <v>-90.230759000000006</v>
+        <v>-2.5852780000000002</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E92" s="1">
-        <v>49.465691</v>
+        <v>9.9455869999999997</v>
       </c>
       <c r="F92" s="1">
-        <v>-2.5852780000000002</v>
+        <v>-9.6966450000000002</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E93" s="1">
-        <v>9.9455869999999997</v>
+        <v>11.803749</v>
       </c>
       <c r="F93" s="1">
-        <v>-9.6966450000000002</v>
+        <v>-15.180413</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E94" s="1">
-        <v>11.803749</v>
+        <v>4.8604159999999998</v>
       </c>
       <c r="F94" s="1">
-        <v>-15.180413</v>
+        <v>-58.93018</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E95" s="1">
-        <v>4.8604159999999998</v>
+        <v>18.971187</v>
       </c>
       <c r="F95" s="1">
-        <v>-58.93018</v>
+        <v>-72.285214999999994</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>512</v>
+        <v>22</v>
       </c>
       <c r="E96" s="1">
-        <v>18.971187</v>
+        <v>-53.081809999999997</v>
       </c>
       <c r="F96" s="1">
-        <v>-72.285214999999994</v>
+        <v>73.504158000000004</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>501</v>
       </c>
       <c r="E97" s="1">
-        <v>-53.081809999999997</v>
+        <v>15.199999</v>
       </c>
       <c r="F97" s="1">
-        <v>73.504158000000004</v>
+        <v>-86.241905000000003</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E98" s="1">
-        <v>15.199999</v>
+        <v>22.396428</v>
       </c>
       <c r="F98" s="1">
-        <v>-86.241905000000003</v>
+        <v>114.109497</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E99" s="1">
-        <v>22.396428</v>
+        <v>47.162494000000002</v>
       </c>
       <c r="F99" s="1">
-        <v>114.109497</v>
+        <v>19.503304</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E100" s="1">
-        <v>47.162494000000002</v>
+        <v>64.963050999999993</v>
       </c>
       <c r="F100" s="1">
-        <v>19.503304</v>
+        <v>-19.020835000000002</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="E101" s="1">
-        <v>64.963050999999993</v>
+        <v>20.593684</v>
       </c>
       <c r="F101" s="1">
-        <v>-19.020835000000002</v>
+        <v>78.962879999999998</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="E102" s="1">
-        <v>20.593684</v>
+        <v>-0.78927499999999995</v>
       </c>
       <c r="F102" s="1">
-        <v>78.962879999999998</v>
+        <v>113.92132700000001</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>493</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>205</v>
@@ -4012,141 +4007,141 @@
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.78927499999999995</v>
+        <v>32.427908000000002</v>
       </c>
       <c r="F103" s="1">
-        <v>113.92132700000001</v>
+        <v>53.688046</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>494</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="E104" s="1">
-        <v>32.427908000000002</v>
+        <v>33.223191</v>
       </c>
       <c r="F104" s="1">
-        <v>53.688046</v>
+        <v>43.679290999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="E105" s="1">
-        <v>33.223191</v>
+        <v>53.412909999999997</v>
       </c>
       <c r="F105" s="1">
-        <v>43.679290999999999</v>
+        <v>-8.2438900000000004</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E106" s="1">
-        <v>53.412909999999997</v>
+        <v>54.236106999999997</v>
       </c>
       <c r="F106" s="1">
-        <v>-8.2438900000000004</v>
+        <v>-4.5480559999999999</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E107" s="1">
-        <v>54.236106999999997</v>
+        <v>31.046050999999999</v>
       </c>
       <c r="F107" s="1">
-        <v>-4.5480559999999999</v>
+        <v>34.851612000000003</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="E108" s="1">
-        <v>31.046050999999999</v>
+        <v>41.871940000000002</v>
       </c>
       <c r="F108" s="1">
-        <v>34.851612000000003</v>
+        <v>12.56738</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>522</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E109" s="1">
-        <v>41.871940000000002</v>
+        <v>7.5399890000000003</v>
       </c>
       <c r="F109" s="1">
-        <v>12.56738</v>
+        <v>-5.5470800000000002</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>21</v>
@@ -4163,16 +4158,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E111" s="1">
         <v>36.204824000000002</v>
@@ -4183,16 +4178,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E112" s="1">
         <v>49.214438999999999</v>
@@ -4203,16 +4198,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E113" s="1">
         <v>30.585163999999999</v>
@@ -4223,16 +4218,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E114" s="1">
         <v>48.019573000000001</v>
@@ -4243,16 +4238,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E115" s="1">
         <v>-2.3559E-2</v>
@@ -4263,10 +4258,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>14</v>
@@ -4283,16 +4278,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E117" s="1">
         <v>42.602635999999997</v>
@@ -4303,16 +4298,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E118" s="1">
         <v>29.31166</v>
@@ -4323,16 +4318,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E119" s="1">
         <v>41.20438</v>
@@ -4343,16 +4338,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E120" s="1">
         <v>19.856269999999999</v>
@@ -4363,16 +4358,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E121" s="1">
         <v>56.879635</v>
@@ -4383,16 +4378,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E122" s="1">
         <v>33.854720999999998</v>
@@ -4403,16 +4398,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E123" s="1">
         <v>-29.609988000000001</v>
@@ -4423,16 +4418,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E124" s="1">
         <v>6.4280549999999996</v>
@@ -4443,16 +4438,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E125" s="1">
         <v>26.335100000000001</v>
@@ -4463,16 +4458,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E126" s="1">
         <v>47.165999999999997</v>
@@ -4483,16 +4478,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E127" s="1">
         <v>55.169438</v>
@@ -4503,16 +4498,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E128" s="1">
         <v>49.815272999999998</v>
@@ -4523,16 +4518,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E129" s="1">
         <v>22.198744999999999</v>
@@ -4543,16 +4538,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E130" s="1">
         <v>41.608635</v>
@@ -4563,16 +4558,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E131" s="1">
         <v>-18.766946999999998</v>
@@ -4583,16 +4578,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E132" s="1">
         <v>-13.254308</v>
@@ -4603,16 +4598,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E133" s="1">
         <v>4.2104840000000001</v>
@@ -4623,16 +4618,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E134" s="1">
         <v>3.2027779999999999</v>
@@ -4643,16 +4638,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E135" s="1">
         <v>17.570692000000001</v>
@@ -4663,10 +4658,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>14</v>
@@ -4683,10 +4678,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>21</v>
@@ -4703,16 +4698,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E138" s="1">
         <v>14.641527999999999</v>
@@ -4723,16 +4718,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E139" s="1">
         <v>21.00789</v>
@@ -4743,16 +4738,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E140" s="1">
         <v>-20.348403999999999</v>
@@ -4763,16 +4758,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E141" s="1">
         <v>23.634501</v>
@@ -4783,16 +4778,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E142" s="1">
         <v>47.411631</v>
@@ -4803,16 +4798,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E143" s="1">
         <v>43.750298000000001</v>
@@ -4823,16 +4818,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E144" s="1">
         <v>46.862496</v>
@@ -4843,16 +4838,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E145" s="1">
         <v>42.708677999999999</v>
@@ -4863,10 +4858,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>21</v>
@@ -4883,16 +4878,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E147" s="1">
         <v>31.791702000000001</v>
@@ -4903,16 +4898,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E148" s="1">
         <v>-18.665694999999999</v>
@@ -4923,16 +4918,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E149" s="1">
         <v>21.913965000000001</v>
@@ -4943,16 +4938,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E150" s="1">
         <v>-22.957640000000001</v>
@@ -4963,10 +4958,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>14</v>
@@ -4983,16 +4978,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E152" s="1">
         <v>28.394856999999998</v>
@@ -5003,16 +4998,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E153" s="1">
         <v>52.132632999999998</v>
@@ -5023,10 +5018,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
@@ -5043,10 +5038,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>14</v>
@@ -5063,16 +5058,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E156" s="1">
         <v>-40.900556999999999</v>
@@ -5083,16 +5078,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E157" s="1">
         <v>12.865416</v>
@@ -5103,16 +5098,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E158" s="1">
         <v>17.607789</v>
@@ -5123,10 +5118,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>14</v>
@@ -5143,10 +5138,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>14</v>
@@ -5163,16 +5158,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E161" s="1">
         <v>-29.040835000000001</v>
@@ -5183,16 +5178,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E162" s="1">
         <v>40.339852</v>
@@ -5203,10 +5198,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>14</v>
@@ -5223,16 +5218,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E164" s="1">
         <v>60.472023999999998</v>
@@ -5243,10 +5238,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>14</v>
@@ -5263,16 +5258,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E166" s="1">
         <v>21.512582999999999</v>
@@ -5283,16 +5278,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E167" s="1">
         <v>30.375321</v>
@@ -5303,10 +5298,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>14</v>
@@ -5323,16 +5318,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E169" s="1">
         <v>31.952162000000001</v>
@@ -5343,16 +5338,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E170" s="1">
         <v>8.5379810000000003</v>
@@ -5363,10 +5358,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>14</v>
@@ -5383,16 +5378,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E172" s="1">
         <v>-23.442502999999999</v>
@@ -5403,16 +5398,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E173" s="1">
         <v>-9.1899669999999993</v>
@@ -5423,16 +5418,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E174" s="1">
         <v>12.879721</v>
@@ -5443,10 +5438,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
@@ -5463,16 +5458,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E176" s="1">
         <v>51.919438</v>
@@ -5483,16 +5478,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E177" s="1">
         <v>39.399872000000002</v>
@@ -5503,10 +5498,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>21</v>
@@ -5523,16 +5518,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E179" s="1">
         <v>25.354825999999999</v>
@@ -5543,16 +5538,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E180" s="1">
         <v>-21.115141000000001</v>
@@ -5563,16 +5558,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E181" s="1">
         <v>45.943161000000003</v>
@@ -5583,16 +5578,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E182" s="1">
         <v>61.524009999999997</v>
@@ -5603,16 +5598,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E183" s="1">
         <v>-1.9402779999999999</v>
@@ -5623,10 +5618,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>21</v>
@@ -5643,16 +5638,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E185" s="1">
         <v>-24.143474000000001</v>
@@ -5663,10 +5658,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>21</v>
@@ -5683,10 +5678,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>21</v>
@@ -5703,16 +5698,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E188" s="1">
         <v>46.941935999999998</v>
@@ -5723,10 +5718,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>21</v>
@@ -5743,10 +5738,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>14</v>
@@ -5763,16 +5758,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E191" s="1">
         <v>43.942360000000001</v>
@@ -5783,16 +5778,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E192" s="1">
         <v>0.18636</v>
@@ -5803,16 +5798,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E193" s="1">
         <v>23.885942</v>
@@ -5823,16 +5818,16 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E194" s="1">
         <v>14.497401</v>
@@ -5843,16 +5838,16 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E195" s="1">
         <v>44.016520999999997</v>
@@ -5863,16 +5858,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E196" s="1">
         <v>-4.6795739999999997</v>
@@ -5883,16 +5878,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E197" s="1">
         <v>8.4605549999999994</v>
@@ -5903,16 +5898,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E198" s="1">
         <v>1.3520829999999999</v>
@@ -5923,16 +5918,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E199" s="1">
         <v>48.669026000000002</v>
@@ -5943,16 +5938,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E200" s="1">
         <v>46.151240999999999</v>
@@ -5963,10 +5958,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>14</v>
@@ -5983,16 +5978,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E202" s="1">
         <v>5.1521489999999996</v>
@@ -6003,16 +5998,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E203" s="1">
         <v>-30.559481999999999</v>
@@ -6023,16 +6018,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E204" s="1">
         <v>-54.429578999999997</v>
@@ -6043,16 +6038,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E205" s="1">
         <v>35.907756999999997</v>
@@ -6063,16 +6058,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E206" s="1">
         <v>6.8895770000000001</v>
@@ -6083,16 +6078,16 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E207" s="1">
         <v>40.463667000000001</v>
@@ -6103,16 +6098,16 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E208" s="1">
         <v>7.8730539999999998</v>
@@ -6123,16 +6118,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E209" s="1">
         <v>12.862807</v>
@@ -6143,16 +6138,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E210" s="1">
         <v>3.919305</v>
@@ -6163,16 +6158,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E211" s="1">
         <v>77.553604000000007</v>
@@ -6183,16 +6178,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E212" s="1">
         <v>-26.522503</v>
@@ -6203,16 +6198,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E213" s="1">
         <v>60.128160999999999</v>
@@ -6223,16 +6218,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E214" s="1">
         <v>46.818187999999999</v>
@@ -6243,16 +6238,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E215" s="1">
         <v>34.802075000000002</v>
@@ -6263,16 +6258,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E216" s="1">
         <v>23.69781</v>
@@ -6283,16 +6278,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E217" s="1">
         <v>38.861033999999997</v>
@@ -6303,16 +6298,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E218" s="1">
         <v>-6.3690280000000001</v>
@@ -6323,16 +6318,16 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E219" s="1">
         <v>15.870032</v>
@@ -6343,16 +6338,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E220" s="1">
         <v>-8.8742169999999998</v>
@@ -6363,16 +6358,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E221" s="1">
         <v>8.6195430000000002</v>
@@ -6383,10 +6378,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>14</v>
@@ -6403,10 +6398,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>14</v>
@@ -6423,10 +6418,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>21</v>
@@ -6443,16 +6438,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E225" s="1">
         <v>33.886916999999997</v>
@@ -6463,16 +6458,16 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E226" s="1">
         <v>38.963745000000003</v>
@@ -6483,16 +6478,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E227" s="1">
         <v>38.969718999999998</v>
@@ -6503,10 +6498,10 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>21</v>
@@ -6523,10 +6518,10 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>14</v>
@@ -6543,10 +6538,10 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
@@ -6563,16 +6558,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E231" s="1">
         <v>1.3733329999999999</v>
@@ -6583,16 +6578,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E232" s="1">
         <v>48.379432999999999</v>
@@ -6603,16 +6598,16 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E233" s="1">
         <v>23.424075999999999</v>
@@ -6623,16 +6618,16 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E234" s="1">
         <v>37.090240000000001</v>
@@ -6643,16 +6638,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E235" s="1">
         <v>-32.522779</v>
@@ -6663,16 +6658,16 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E236" s="1">
         <v>41.377490999999999</v>
@@ -6683,10 +6678,10 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>14</v>
@@ -6703,16 +6698,16 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E238" s="1">
         <v>6.4237500000000001</v>
@@ -6723,16 +6718,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E239" s="1">
         <v>14.058324000000001</v>
@@ -6743,10 +6738,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>14</v>
@@ -6763,16 +6758,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E241" s="1">
         <v>24.215527000000002</v>
@@ -6783,16 +6778,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E242" s="1">
         <v>15.552727000000001</v>
@@ -6803,16 +6798,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E243" s="1">
         <v>-13.133896999999999</v>
@@ -6823,16 +6818,16 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E244" s="1">
         <v>-19.015438</v>
@@ -6843,7 +6838,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F244">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6851,10 +6846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6864,23 +6859,23 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2">
         <v>-5.1882460000000004</v>
@@ -6889,12 +6884,12 @@
         <v>35.136011000000003</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3">
         <v>2.0991010000000001</v>
@@ -6903,12 +6898,12 @@
         <v>17.294214</v>
       </c>
       <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B4">
         <v>26.028231999999999</v>
@@ -6917,12 +6912,12 @@
         <v>16.503198999999999</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B5">
         <v>-23.988213999999999</v>
@@ -6931,12 +6926,12 @@
         <v>23.401357000000001</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -6945,12 +6940,12 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B7">
         <v>17.399999999999999</v>
@@ -6959,15 +6954,15 @@
         <v>-91</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B8">
-        <v>48.35528</v>
+        <v>44.35528</v>
       </c>
       <c r="C8">
         <v>-99.999170000000007</v>
@@ -6976,9 +6971,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B9">
         <v>-19.247730000000001</v>
@@ -6987,12 +6982,12 @@
         <v>-61.527410000000003</v>
       </c>
       <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B10" s="1">
         <v>-75.250973000000002</v>
@@ -7001,12 +6996,12 @@
         <v>-7.1388999999999994E-2</v>
       </c>
       <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B11">
         <v>45.3</v>
@@ -7015,12 +7010,12 @@
         <v>63.9</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B12">
         <v>39.286757000000001</v>
@@ -7029,26 +7024,26 @@
         <v>112.064601</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B13">
-        <v>39.286757000000001</v>
+        <v>11.998224</v>
       </c>
       <c r="C13">
-        <v>112.064601</v>
+        <v>120.656442</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14">
         <v>26.9</v>
@@ -7057,12 +7052,12 @@
         <v>72.2</v>
       </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B15">
         <v>32.811895</v>
@@ -7071,26 +7066,27 @@
         <v>40.661186000000001</v>
       </c>
       <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16">
-        <v>14.52556</v>
+        <v>19.593216000000002</v>
       </c>
       <c r="C16">
-        <v>-75.818340000000006</v>
+        <v>-68.968227999999996</v>
       </c>
       <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -7099,12 +7095,12 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B18">
         <v>59.155256000000001</v>
@@ -7113,38 +7109,39 @@
         <v>16.123697</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19">
-        <v>54.261223000000001</v>
+        <v>45.160167999999999</v>
       </c>
       <c r="C19">
-        <v>17.669846</v>
+        <v>15.136200000000001</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20">
         <v>54.261223000000001</v>
       </c>
       <c r="C20">
-        <v>17.669846</v>
+        <v>11.136255</v>
       </c>
       <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -7155,7 +7152,7 @@
         <v>161.591196</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
